--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_tob_es.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_tob_es.xlsx
@@ -102,10 +102,10 @@
     <t>[Nombre]</t>
   </si>
   <si>
-    <t>Para cualquier pregunta contacte con el Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
     <t>Fecha de consumo preferente o fecha de caducidad</t>
+  </si>
+  <si>
+    <t>Para cualquier pregunta contacte con FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
 </sst>
 </file>
@@ -1274,6 +1274,197 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,11 +1474,21 @@
     <xf numFmtId="1" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1303,207 +1504,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1929,78 +1929,78 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="5" customWidth="1"/>
-    <col min="14" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="16384" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="11.86328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.3984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.3984375" style="5" customWidth="1"/>
+    <col min="14" max="19" width="11.3984375" style="4"/>
+    <col min="20" max="16384" width="11.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="37" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-    </row>
-    <row r="2" spans="1:19" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2012,169 +2012,169 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="17" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="50"/>
-    </row>
-    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9" t="s">
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2184,481 +2184,481 @@
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="50"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="50"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="50"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="50"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="50"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="50"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="50"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="50"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="50"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="50"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="50"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="50"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="50"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="50"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="50"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="50"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="50"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="50"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="50"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="50"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="50"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="50"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="50"/>
-    </row>
-    <row r="40" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="50"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A6:M6"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="A10:A11"/>
@@ -2675,11 +2675,11 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:L11"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_tob_es.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_tob_es.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="5640" windowWidth="25215" windowHeight="5745"/>
+    <workbookView xWindow="28575" yWindow="-60" windowWidth="28755" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Trazabilidadhaciaatrás" sheetId="5" r:id="rId1"/>
@@ -83,12 +83,6 @@
     <t>Fecha de recepción de producto</t>
   </si>
   <si>
-    <t>Informacion a completar en el formulario:</t>
-  </si>
-  <si>
-    <t>Por favor realice un seguimiento de todos los envios que coincidan con la descripción de los productos en estudio durante el período pertinente y siempre basados en los números de lote.</t>
-  </si>
-  <si>
     <t>Dirección
 (Calle n°, Código postal, Ciudad)</t>
   </si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>Para cualquier pregunta contacte con FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t>Información a completar en el formulario:</t>
+  </si>
+  <si>
+    <t>Por favor realice un seguimiento de todos los envíos que coincidan con la descripción de los productos en estudio durante el período pertinente y siempre basados en los números de lote.</t>
   </si>
 </sst>
 </file>
@@ -1950,11 +1950,11 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="35"/>
@@ -1979,9 +1979,9 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2053,9 +2053,9 @@
       <c r="L5" s="64"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="67" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="65" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2135,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>10</v>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="58" t="s">
         <v>20</v>
@@ -2188,7 +2188,7 @@
       <c r="M11" s="43"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -2204,7 +2204,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2220,7 +2220,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -2236,7 +2236,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -2252,7 +2252,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2268,7 +2268,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2284,7 +2284,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2300,7 +2300,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2316,7 +2316,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2332,7 +2332,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2348,7 +2348,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2364,7 +2364,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2380,7 +2380,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2396,7 +2396,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2412,7 +2412,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2428,7 +2428,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2444,7 +2444,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2460,7 +2460,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2476,7 +2476,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2492,7 +2492,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2508,7 +2508,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2524,7 +2524,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2540,7 +2540,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2556,7 +2556,7 @@
       <c r="M34" s="25"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2572,7 +2572,7 @@
       <c r="M35" s="25"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2588,7 +2588,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2604,7 +2604,7 @@
       <c r="M37" s="25"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2620,7 +2620,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2636,7 +2636,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
